--- a/Code/Results/Cases/Case_3_154/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_154/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.251336801600473</v>
+        <v>0.9752684689550506</v>
       </c>
       <c r="C2">
-        <v>0.4030765284230853</v>
+        <v>0.3144284655096214</v>
       </c>
       <c r="D2">
-        <v>0.03877906846748402</v>
+        <v>0.02482583923178794</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6195892471124651</v>
+        <v>0.7747881010662638</v>
       </c>
       <c r="G2">
-        <v>0.0007894676923053415</v>
+        <v>0.002426413660574234</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1835077832349583</v>
+        <v>0.2699937045276712</v>
       </c>
       <c r="M2">
-        <v>0.3941451508288552</v>
+        <v>0.2426022336133826</v>
       </c>
       <c r="N2">
-        <v>0.7348953747967073</v>
+        <v>1.359822563877721</v>
       </c>
       <c r="O2">
-        <v>1.813778615586671</v>
+        <v>2.660753901150883</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.955916119697065</v>
+        <v>0.8903146079812245</v>
       </c>
       <c r="C3">
-        <v>0.374633532672533</v>
+        <v>0.3048098054362356</v>
       </c>
       <c r="D3">
-        <v>0.0353936611904544</v>
+        <v>0.02364819138880847</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.569262781374043</v>
+        <v>0.7683249196520308</v>
       </c>
       <c r="G3">
-        <v>0.0007937238617684028</v>
+        <v>0.002429291666281998</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1693530035997526</v>
+        <v>0.2680661493647136</v>
       </c>
       <c r="M3">
-        <v>0.3442926074465618</v>
+        <v>0.2293245913893287</v>
       </c>
       <c r="N3">
-        <v>0.7683944235131115</v>
+        <v>1.374288397553542</v>
       </c>
       <c r="O3">
-        <v>1.695472418936106</v>
+        <v>2.653760480629671</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.775147011108999</v>
+        <v>0.8383503803046324</v>
       </c>
       <c r="C4">
-        <v>0.3571345553775132</v>
+        <v>0.2988588799797185</v>
       </c>
       <c r="D4">
-        <v>0.03330772803227333</v>
+        <v>0.02291906668793686</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5395652852582273</v>
+        <v>0.764887090079732</v>
       </c>
       <c r="G4">
-        <v>0.0007964256070390717</v>
+        <v>0.002431154550266353</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1609149724215087</v>
+        <v>0.2670216154850706</v>
       </c>
       <c r="M4">
-        <v>0.3138926305909635</v>
+        <v>0.2212654132829854</v>
       </c>
       <c r="N4">
-        <v>0.7900759575949401</v>
+        <v>1.383704108734388</v>
       </c>
       <c r="O4">
-        <v>1.626769714792118</v>
+        <v>2.651247702501365</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.701607701637357</v>
+        <v>0.8172253936473055</v>
       </c>
       <c r="C5">
-        <v>0.3499933602439711</v>
+        <v>0.2964226609837226</v>
       </c>
       <c r="D5">
-        <v>0.03245573920521139</v>
+        <v>0.0226204400608232</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5277459801316553</v>
+        <v>0.7636194630226427</v>
       </c>
       <c r="G5">
-        <v>0.0007975492359928205</v>
+        <v>0.002431937846937425</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1575362729302938</v>
+        <v>0.2666309506830018</v>
       </c>
       <c r="M5">
-        <v>0.3015507628921625</v>
+        <v>0.2180048774441445</v>
       </c>
       <c r="N5">
-        <v>0.7991834350953049</v>
+        <v>1.387675299132745</v>
       </c>
       <c r="O5">
-        <v>1.599701948352049</v>
+        <v>2.650671200377644</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.68940328366034</v>
+        <v>0.813720710537666</v>
       </c>
       <c r="C6">
-        <v>0.348806912685717</v>
+        <v>0.2960174586737168</v>
       </c>
       <c r="D6">
-        <v>0.03231414565188118</v>
+        <v>0.02257076311077455</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.525799903744975</v>
+        <v>0.7634170234460527</v>
       </c>
       <c r="G6">
-        <v>0.0007977371929906393</v>
+        <v>0.002432069373864594</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1569787517044787</v>
+        <v>0.266568195669258</v>
       </c>
       <c r="M6">
-        <v>0.2995040266440228</v>
+        <v>0.2174649010964913</v>
       </c>
       <c r="N6">
-        <v>0.800711937425401</v>
+        <v>1.388342819160151</v>
       </c>
       <c r="O6">
-        <v>1.595261758783408</v>
+        <v>2.650602486669413</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.774154764776142</v>
+        <v>0.8380652739348591</v>
       </c>
       <c r="C7">
-        <v>0.3570382899416273</v>
+        <v>0.2988260692945062</v>
       </c>
       <c r="D7">
-        <v>0.0332962458820667</v>
+        <v>0.02291504536507816</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5394047670110282</v>
+        <v>0.7648694547651118</v>
       </c>
       <c r="G7">
-        <v>0.0007964406684823703</v>
+        <v>0.0024311650164509</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1608691685417583</v>
+        <v>0.2670162051111049</v>
       </c>
       <c r="M7">
-        <v>0.3137260042450691</v>
+        <v>0.2212213445922018</v>
       </c>
       <c r="N7">
-        <v>0.7901976925890146</v>
+        <v>1.383757122144274</v>
       </c>
       <c r="O7">
-        <v>1.626400985759489</v>
+        <v>2.651238116349361</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.149328035329063</v>
+        <v>0.9459359731671384</v>
       </c>
       <c r="C8">
-        <v>0.3932757007428762</v>
+        <v>0.3111213871380443</v>
       </c>
       <c r="D8">
-        <v>0.03761321256182271</v>
+        <v>0.02442105085827251</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6019746712709662</v>
+        <v>0.7724494048240231</v>
       </c>
       <c r="G8">
-        <v>0.0007909171149293159</v>
+        <v>0.002427386162088477</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1785723613007377</v>
+        <v>0.2693002584326791</v>
       </c>
       <c r="M8">
-        <v>0.3769085221522772</v>
+        <v>0.2380048265235075</v>
       </c>
       <c r="N8">
-        <v>0.7462100362534336</v>
+        <v>1.364699644013445</v>
       </c>
       <c r="O8">
-        <v>1.77213159475906</v>
+        <v>2.657972613782107</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.891462369640976</v>
+        <v>1.159000976921334</v>
       </c>
       <c r="C9">
-        <v>0.4641354478512767</v>
+        <v>0.3348694634296407</v>
       </c>
       <c r="D9">
-        <v>0.04602746975317729</v>
+        <v>0.02732572685741275</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7351749705126451</v>
+        <v>0.7915303816012624</v>
       </c>
       <c r="G9">
-        <v>0.0007807677015335111</v>
+        <v>0.002420732487442757</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2154775561066771</v>
+        <v>0.2748809283151985</v>
       </c>
       <c r="M9">
-        <v>0.5027837394624726</v>
+        <v>0.2716521723259717</v>
       </c>
       <c r="N9">
-        <v>0.6691509483112306</v>
+        <v>1.331560704272803</v>
       </c>
       <c r="O9">
-        <v>2.092082427420536</v>
+        <v>2.685336084649009</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.442900017409841</v>
+        <v>1.31643747657813</v>
       </c>
       <c r="C10">
-        <v>0.5161918038554631</v>
+        <v>0.3520897647377126</v>
       </c>
       <c r="D10">
-        <v>0.05218845133256877</v>
+        <v>0.0294294982446317</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.840857339908851</v>
+        <v>0.8081319906748377</v>
       </c>
       <c r="G10">
-        <v>0.0007736980336357064</v>
+        <v>0.002416300685649583</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2441964543154427</v>
+        <v>0.2796518848417691</v>
       </c>
       <c r="M10">
-        <v>0.5969371264752752</v>
+        <v>0.296816041549981</v>
       </c>
       <c r="N10">
-        <v>0.6186869552860017</v>
+        <v>1.309791617105091</v>
       </c>
       <c r="O10">
-        <v>2.352335326066736</v>
+        <v>2.714110925082167</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.695657722356884</v>
+        <v>1.38824777267132</v>
       </c>
       <c r="C11">
-        <v>0.5399021418182599</v>
+        <v>0.3598731472398526</v>
       </c>
       <c r="D11">
-        <v>0.05498922016306551</v>
+        <v>0.03037984995191323</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8909723737032493</v>
+        <v>0.8162481181249177</v>
       </c>
       <c r="G11">
-        <v>0.0007705591103152232</v>
+        <v>0.002414382719548659</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2576742895108026</v>
+        <v>0.2819678800110523</v>
       </c>
       <c r="M11">
-        <v>0.6402460537620627</v>
+        <v>0.3083590973021373</v>
       </c>
       <c r="N11">
-        <v>0.5971947279394527</v>
+        <v>1.300447685975541</v>
       </c>
       <c r="O11">
-        <v>2.477242122707082</v>
+        <v>2.72909326382387</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.791693210791891</v>
+        <v>1.415467106020287</v>
       </c>
       <c r="C12">
-        <v>0.5488874993793047</v>
+        <v>0.3628131539281583</v>
       </c>
       <c r="D12">
-        <v>0.0560497434120748</v>
+        <v>0.03073874974306534</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.9102733515818926</v>
+        <v>0.8194027483387885</v>
       </c>
       <c r="G12">
-        <v>0.0007693809718907923</v>
+        <v>0.002413670465668276</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2628431870028152</v>
+        <v>0.2828658072999275</v>
       </c>
       <c r="M12">
-        <v>0.6567247669242064</v>
+        <v>0.3127438058863277</v>
       </c>
       <c r="N12">
-        <v>0.5892784975876779</v>
+        <v>1.296989754401949</v>
       </c>
       <c r="O12">
-        <v>2.525571866849532</v>
+        <v>2.735039427249234</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.770995147367671</v>
+        <v>1.409603783902298</v>
       </c>
       <c r="C13">
-        <v>0.5469519983699911</v>
+        <v>0.3621803023158918</v>
       </c>
       <c r="D13">
-        <v>0.05582134028072971</v>
+        <v>0.03066149804794094</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.9061016472785184</v>
+        <v>0.8187197275378253</v>
       </c>
       <c r="G13">
-        <v>0.0007696342476642288</v>
+        <v>0.002413823239018478</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2617269807452089</v>
+        <v>0.2826714931794214</v>
       </c>
       <c r="M13">
-        <v>0.6531721226541976</v>
+        <v>0.3117988783364396</v>
       </c>
       <c r="N13">
-        <v>0.590973309486067</v>
+        <v>1.297730904824078</v>
       </c>
       <c r="O13">
-        <v>2.515115810675525</v>
+        <v>2.733746678689897</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.703551887861977</v>
+        <v>1.390486602873239</v>
       </c>
       <c r="C14">
-        <v>0.540641221746597</v>
+        <v>0.3601151724663509</v>
       </c>
       <c r="D14">
-        <v>0.05507647015497241</v>
+        <v>0.03040939656172981</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.8925536121246438</v>
+        <v>0.8165060227605636</v>
       </c>
       <c r="G14">
-        <v>0.000770461977158517</v>
+        <v>0.002414323841150414</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2580981984397113</v>
+        <v>0.2820413341644894</v>
       </c>
       <c r="M14">
-        <v>0.6416001339673656</v>
+        <v>0.3087195583291589</v>
       </c>
       <c r="N14">
-        <v>0.5965389264273213</v>
+        <v>1.30016158804731</v>
       </c>
       <c r="O14">
-        <v>2.481197032884296</v>
+        <v>2.72957699035976</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.662284306048775</v>
+        <v>1.378780170457219</v>
       </c>
       <c r="C15">
-        <v>0.5367766486395453</v>
+        <v>0.3588492531960412</v>
       </c>
       <c r="D15">
-        <v>0.05462021334860623</v>
+        <v>0.03025484921101906</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.8842981143902335</v>
+        <v>0.8151606469139807</v>
       </c>
       <c r="G15">
-        <v>0.0007709703351965988</v>
+        <v>0.002414632300641887</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2558841224100945</v>
+        <v>0.2816580656271412</v>
       </c>
       <c r="M15">
-        <v>0.6345224921712642</v>
+        <v>0.3068351520718338</v>
       </c>
       <c r="N15">
-        <v>0.5999773587651731</v>
+        <v>1.301660924970356</v>
       </c>
       <c r="O15">
-        <v>2.460557858288695</v>
+        <v>2.727058462281263</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.426424039739743</v>
+        <v>1.311748256403689</v>
       </c>
       <c r="C16">
-        <v>0.5146430825849677</v>
+        <v>0.3515800773149067</v>
       </c>
       <c r="D16">
-        <v>0.05200539353726441</v>
+        <v>0.02936725475735358</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.8376257779039378</v>
+        <v>0.807612942392538</v>
       </c>
       <c r="G16">
-        <v>0.0007739046722090455</v>
+        <v>0.002416427997163303</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2433244421534653</v>
+        <v>0.2795034571476123</v>
       </c>
       <c r="M16">
-        <v>0.5941172283385612</v>
+        <v>0.2960635894091013</v>
       </c>
       <c r="N16">
-        <v>0.6201219801887703</v>
+        <v>1.31041351535378</v>
       </c>
       <c r="O16">
-        <v>2.344311307835682</v>
+        <v>2.713169922114076</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.282252235537783</v>
+        <v>1.270674560187388</v>
       </c>
       <c r="C17">
-        <v>0.5010741553859077</v>
+        <v>0.3471076900233356</v>
       </c>
       <c r="D17">
-        <v>0.05040094181796917</v>
+        <v>0.02882102354342919</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.8095369960480667</v>
+        <v>0.8031272100857905</v>
       </c>
       <c r="G17">
-        <v>0.0007757241381298186</v>
+        <v>0.002417554673284417</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2357292961098238</v>
+        <v>0.2782189568330864</v>
       </c>
       <c r="M17">
-        <v>0.5694591045829043</v>
+        <v>0.2894800119561367</v>
       </c>
       <c r="N17">
-        <v>0.6328632295890912</v>
+        <v>1.315926128667407</v>
       </c>
       <c r="O17">
-        <v>2.27473095798004</v>
+        <v>2.70513485348701</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.199504761085393</v>
+        <v>1.247068167924624</v>
       </c>
       <c r="C18">
-        <v>0.4932722933702678</v>
+        <v>0.3445305744290863</v>
       </c>
       <c r="D18">
-        <v>0.0494779121662674</v>
+        <v>0.02850621966682354</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7935711104234286</v>
+        <v>0.8006002115151745</v>
       </c>
       <c r="G18">
-        <v>0.0007767779414536405</v>
+        <v>0.00241821194328592</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2313993227962072</v>
+        <v>0.2774938588810869</v>
       </c>
       <c r="M18">
-        <v>0.5553207721665459</v>
+        <v>0.2857023485304566</v>
       </c>
       <c r="N18">
-        <v>0.64032870748904</v>
+        <v>1.319149445170417</v>
       </c>
       <c r="O18">
-        <v>2.235317558906445</v>
+        <v>2.700691395561137</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.171516785108224</v>
+        <v>1.239078597143532</v>
       </c>
       <c r="C19">
-        <v>0.4906310955471156</v>
+        <v>0.3436572024542102</v>
       </c>
       <c r="D19">
-        <v>0.04916535134598377</v>
+        <v>0.0283995255377647</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7881970909826208</v>
+        <v>0.7997537250854805</v>
       </c>
       <c r="G19">
-        <v>0.000777136011114875</v>
+        <v>0.002418436072071076</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2299397234685188</v>
+        <v>0.2772507094320673</v>
       </c>
       <c r="M19">
-        <v>0.5505411091016583</v>
+        <v>0.2844248541987824</v>
       </c>
       <c r="N19">
-        <v>0.6428795799820648</v>
+        <v>1.320249838992474</v>
       </c>
       <c r="O19">
-        <v>2.222074450568016</v>
+        <v>2.69921748975608</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.297580987719186</v>
+        <v>1.275045059683123</v>
       </c>
       <c r="C20">
-        <v>0.5025183016888661</v>
+        <v>0.3475842726818712</v>
       </c>
       <c r="D20">
-        <v>0.05057175682947701</v>
+        <v>0.02887923573199913</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.8125072148363444</v>
+        <v>0.8035992298306809</v>
       </c>
       <c r="G20">
-        <v>0.0007755297019579888</v>
+        <v>0.00241743378113608</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2365337823660951</v>
+        <v>0.2783542751377297</v>
       </c>
       <c r="M20">
-        <v>0.5720793433030238</v>
+        <v>0.290179911138587</v>
       </c>
       <c r="N20">
-        <v>0.6314926345273619</v>
+        <v>1.315333856663926</v>
       </c>
       <c r="O20">
-        <v>2.282074390927249</v>
+        <v>2.705971763584671</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.723352481135635</v>
+        <v>1.396101077442495</v>
       </c>
       <c r="C21">
-        <v>0.5424946449757044</v>
+        <v>0.3607219531134547</v>
       </c>
       <c r="D21">
-        <v>0.05529525666418778</v>
+        <v>0.03048347157044162</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.8965239665927811</v>
+        <v>0.8171540359525409</v>
       </c>
       <c r="G21">
-        <v>0.0007702185727398442</v>
+        <v>0.002414176421762803</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2591622447423703</v>
+        <v>0.2822258599331917</v>
       </c>
       <c r="M21">
-        <v>0.6449968933823271</v>
+        <v>0.3096236615215275</v>
       </c>
       <c r="N21">
-        <v>0.5948980348124024</v>
+        <v>1.299445454771337</v>
       </c>
       <c r="O21">
-        <v>2.491131061291668</v>
+        <v>2.730794324271329</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.003518340724554</v>
+        <v>1.475371102920349</v>
       </c>
       <c r="C22">
-        <v>0.5686622834262778</v>
+        <v>0.3692650258070671</v>
       </c>
       <c r="D22">
-        <v>0.05838205407800956</v>
+        <v>0.0315262242068215</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.9533350878073321</v>
+        <v>0.8264864091584911</v>
       </c>
       <c r="G22">
-        <v>0.0007668083658159964</v>
+        <v>0.002412129343998635</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2743338418535757</v>
+        <v>0.2848780282515122</v>
       </c>
       <c r="M22">
-        <v>0.6931157639174685</v>
+        <v>0.3224104848702183</v>
       </c>
       <c r="N22">
-        <v>0.572283857948193</v>
+        <v>1.289530191057601</v>
       </c>
       <c r="O22">
-        <v>2.633815262931961</v>
+        <v>2.748606919051298</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.853798015884365</v>
+        <v>1.433049610649164</v>
       </c>
       <c r="C23">
-        <v>0.5546914975290633</v>
+        <v>0.364709432373985</v>
       </c>
       <c r="D23">
-        <v>0.05673452552655789</v>
+        <v>0.03097021621596951</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.9228293651281092</v>
+        <v>0.8214621757054488</v>
       </c>
       <c r="G23">
-        <v>0.0007686230865231548</v>
+        <v>0.002413214445327435</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2661994821697959</v>
+        <v>0.2834513774452745</v>
       </c>
       <c r="M23">
-        <v>0.6673880041091778</v>
+        <v>0.3155787298721719</v>
       </c>
       <c r="N23">
-        <v>0.5842301408611021</v>
+        <v>1.294779251833376</v>
       </c>
       <c r="O23">
-        <v>2.557075433329231</v>
+        <v>2.738954375786363</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.290650430025664</v>
+        <v>1.273069133646686</v>
       </c>
       <c r="C24">
-        <v>0.5018654061504719</v>
+        <v>0.3473688279672444</v>
       </c>
       <c r="D24">
-        <v>0.0504945332750566</v>
+        <v>0.02885292039287179</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.8111638120185631</v>
+        <v>0.80338566802088</v>
       </c>
       <c r="G24">
-        <v>0.000775617582365995</v>
+        <v>0.002417488406655779</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2361699606238261</v>
+        <v>0.2782930560581889</v>
       </c>
       <c r="M24">
-        <v>0.5708946159004142</v>
+        <v>0.2898634638943705</v>
       </c>
       <c r="N24">
-        <v>0.632111844240633</v>
+        <v>1.315601454499152</v>
       </c>
       <c r="O24">
-        <v>2.278752596406122</v>
+        <v>2.705592848303695</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.689782673681862</v>
+        <v>1.101201047570214</v>
       </c>
       <c r="C25">
-        <v>0.4449759770928381</v>
+        <v>0.328484475510038</v>
       </c>
       <c r="D25">
-        <v>0.04375566779750528</v>
+        <v>0.02654520684647821</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6978758644522713</v>
+        <v>0.7859157796321767</v>
       </c>
       <c r="G25">
-        <v>0.0007834432207331389</v>
+        <v>0.002422451957877659</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2052325311801653</v>
+        <v>0.2732533486240172</v>
       </c>
       <c r="M25">
-        <v>0.4684732994127785</v>
+        <v>0.2624714962310435</v>
       </c>
       <c r="N25">
-        <v>0.6889587279588767</v>
+        <v>1.340072777324981</v>
       </c>
       <c r="O25">
-        <v>2.001437313311101</v>
+        <v>2.676413748109439</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_154/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_154/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9752684689550506</v>
+        <v>2.251336801600416</v>
       </c>
       <c r="C2">
-        <v>0.3144284655096214</v>
+        <v>0.4030765284226305</v>
       </c>
       <c r="D2">
-        <v>0.02482583923178794</v>
+        <v>0.03877906846742718</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7747881010662638</v>
+        <v>0.6195892471124722</v>
       </c>
       <c r="G2">
-        <v>0.002426413660574234</v>
+        <v>0.0007894676923339099</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2699937045276712</v>
+        <v>0.1835077832349867</v>
       </c>
       <c r="M2">
-        <v>0.2426022336133826</v>
+        <v>0.394145150828848</v>
       </c>
       <c r="N2">
-        <v>1.359822563877721</v>
+        <v>0.7348953747966966</v>
       </c>
       <c r="O2">
-        <v>2.660753901150883</v>
+        <v>1.813778615586614</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8903146079812245</v>
+        <v>1.955916119697065</v>
       </c>
       <c r="C3">
-        <v>0.3048098054362356</v>
+        <v>0.3746335326723624</v>
       </c>
       <c r="D3">
-        <v>0.02364819138880847</v>
+        <v>0.03539366119044018</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7683249196520308</v>
+        <v>0.569262781374043</v>
       </c>
       <c r="G3">
-        <v>0.002429291666281998</v>
+        <v>0.0007937238617725689</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2680661493647136</v>
+        <v>0.1693530035996744</v>
       </c>
       <c r="M3">
-        <v>0.2293245913893287</v>
+        <v>0.344292607446576</v>
       </c>
       <c r="N3">
-        <v>1.374288397553542</v>
+        <v>0.7683944235131044</v>
       </c>
       <c r="O3">
-        <v>2.653760480629671</v>
+        <v>1.695472418936191</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8383503803046324</v>
+        <v>1.775147011108999</v>
       </c>
       <c r="C4">
-        <v>0.2988588799797185</v>
+        <v>0.3571345553776553</v>
       </c>
       <c r="D4">
-        <v>0.02291906668793686</v>
+        <v>0.03330772803262505</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.764887090079732</v>
+        <v>0.5395652852582202</v>
       </c>
       <c r="G4">
-        <v>0.002431154550266353</v>
+        <v>0.0007964256070163819</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2670216154850706</v>
+        <v>0.1609149724215087</v>
       </c>
       <c r="M4">
-        <v>0.2212654132829854</v>
+        <v>0.3138926305909777</v>
       </c>
       <c r="N4">
-        <v>1.383704108734388</v>
+        <v>0.7900759575949614</v>
       </c>
       <c r="O4">
-        <v>2.651247702501365</v>
+        <v>1.626769714792147</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8172253936473055</v>
+        <v>1.701607701637357</v>
       </c>
       <c r="C5">
-        <v>0.2964226609837226</v>
+        <v>0.3499933602442837</v>
       </c>
       <c r="D5">
-        <v>0.0226204400608232</v>
+        <v>0.0324557392051652</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7636194630226427</v>
+        <v>0.5277459801316482</v>
       </c>
       <c r="G5">
-        <v>0.002431937846937425</v>
+        <v>0.0007975492359694859</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2666309506830018</v>
+        <v>0.1575362729302157</v>
       </c>
       <c r="M5">
-        <v>0.2180048774441445</v>
+        <v>0.3015507628921767</v>
       </c>
       <c r="N5">
-        <v>1.387675299132745</v>
+        <v>0.7991834350953546</v>
       </c>
       <c r="O5">
-        <v>2.650671200377644</v>
+        <v>1.599701948352021</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.813720710537666</v>
+        <v>1.689403283660255</v>
       </c>
       <c r="C6">
-        <v>0.2960174586737168</v>
+        <v>0.3488069126851343</v>
       </c>
       <c r="D6">
-        <v>0.02257076311077455</v>
+        <v>0.03231414565182789</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7634170234460527</v>
+        <v>0.5257999037449821</v>
       </c>
       <c r="G6">
-        <v>0.002432069373864594</v>
+        <v>0.0007977371930484181</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.266568195669258</v>
+        <v>0.1569787517044219</v>
       </c>
       <c r="M6">
-        <v>0.2174649010964913</v>
+        <v>0.2995040266440228</v>
       </c>
       <c r="N6">
-        <v>1.388342819160151</v>
+        <v>0.800711937425401</v>
       </c>
       <c r="O6">
-        <v>2.650602486669413</v>
+        <v>1.595261758783494</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8380652739348591</v>
+        <v>1.774154764776142</v>
       </c>
       <c r="C7">
-        <v>0.2988260692945062</v>
+        <v>0.3570382899417268</v>
       </c>
       <c r="D7">
-        <v>0.02291504536507816</v>
+        <v>0.03329624588230118</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7648694547651118</v>
+        <v>0.5394047670110425</v>
       </c>
       <c r="G7">
-        <v>0.0024311650164509</v>
+        <v>0.0007964406684594569</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2670162051111049</v>
+        <v>0.1608691685416659</v>
       </c>
       <c r="M7">
-        <v>0.2212213445922018</v>
+        <v>0.3137260042450762</v>
       </c>
       <c r="N7">
-        <v>1.383757122144274</v>
+        <v>0.7901976925890146</v>
       </c>
       <c r="O7">
-        <v>2.651238116349361</v>
+        <v>1.626400985759489</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9459359731671384</v>
+        <v>2.14932803532912</v>
       </c>
       <c r="C8">
-        <v>0.3111213871380443</v>
+        <v>0.393275700742862</v>
       </c>
       <c r="D8">
-        <v>0.02442105085827251</v>
+        <v>0.03761321256182981</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7724494048240231</v>
+        <v>0.6019746712709662</v>
       </c>
       <c r="G8">
-        <v>0.002427386162088477</v>
+        <v>0.0007909171149600286</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2693002584326791</v>
+        <v>0.178572361300823</v>
       </c>
       <c r="M8">
-        <v>0.2380048265235075</v>
+        <v>0.3769085221522772</v>
       </c>
       <c r="N8">
-        <v>1.364699644013445</v>
+        <v>0.7462100362534301</v>
       </c>
       <c r="O8">
-        <v>2.657972613782107</v>
+        <v>1.772131594759031</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.159000976921334</v>
+        <v>2.891462369640863</v>
       </c>
       <c r="C9">
-        <v>0.3348694634296407</v>
+        <v>0.4641354478515041</v>
       </c>
       <c r="D9">
-        <v>0.02732572685741275</v>
+        <v>0.04602746975317018</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7915303816012624</v>
+        <v>0.7351749705126451</v>
       </c>
       <c r="G9">
-        <v>0.002420732487442757</v>
+        <v>0.0007807677014481025</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2748809283151985</v>
+        <v>0.2154775561066344</v>
       </c>
       <c r="M9">
-        <v>0.2716521723259717</v>
+        <v>0.5027837394624797</v>
       </c>
       <c r="N9">
-        <v>1.331560704272803</v>
+        <v>0.669150948311227</v>
       </c>
       <c r="O9">
-        <v>2.685336084649009</v>
+        <v>2.092082427420479</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.31643747657813</v>
+        <v>3.442900017409897</v>
       </c>
       <c r="C10">
-        <v>0.3520897647377126</v>
+        <v>0.5161918038558326</v>
       </c>
       <c r="D10">
-        <v>0.0294294982446317</v>
+        <v>0.05218845133245509</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8081319906748377</v>
+        <v>0.8408573399088226</v>
       </c>
       <c r="G10">
-        <v>0.002416300685649583</v>
+        <v>0.0007736980336073378</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2796518848417691</v>
+        <v>0.2441964543154711</v>
       </c>
       <c r="M10">
-        <v>0.296816041549981</v>
+        <v>0.5969371264752752</v>
       </c>
       <c r="N10">
-        <v>1.309791617105091</v>
+        <v>0.6186869552859378</v>
       </c>
       <c r="O10">
-        <v>2.714110925082167</v>
+        <v>2.352335326066679</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.38824777267132</v>
+        <v>3.695657722356998</v>
       </c>
       <c r="C11">
-        <v>0.3598731472398526</v>
+        <v>0.5399021418184589</v>
       </c>
       <c r="D11">
-        <v>0.03037984995191323</v>
+        <v>0.05498922016295182</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8162481181249177</v>
+        <v>0.8909723737032351</v>
       </c>
       <c r="G11">
-        <v>0.002414382719548659</v>
+        <v>0.0007705591102813256</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2819678800110523</v>
+        <v>0.2576742895107742</v>
       </c>
       <c r="M11">
-        <v>0.3083590973021373</v>
+        <v>0.6402460537620627</v>
       </c>
       <c r="N11">
-        <v>1.300447685975541</v>
+        <v>0.5971947279394456</v>
       </c>
       <c r="O11">
-        <v>2.72909326382387</v>
+        <v>2.477242122707139</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.415467106020287</v>
+        <v>3.791693210791721</v>
       </c>
       <c r="C12">
-        <v>0.3628131539281583</v>
+        <v>0.5488874993789352</v>
       </c>
       <c r="D12">
-        <v>0.03073874974306534</v>
+        <v>0.05604974341197533</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.8194027483387885</v>
+        <v>0.9102733515819352</v>
       </c>
       <c r="G12">
-        <v>0.002413670465668276</v>
+        <v>0.000769380971891838</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2828658072999275</v>
+        <v>0.2628431870027725</v>
       </c>
       <c r="M12">
-        <v>0.3127438058863277</v>
+        <v>0.6567247669241922</v>
       </c>
       <c r="N12">
-        <v>1.296989754401949</v>
+        <v>0.5892784975876992</v>
       </c>
       <c r="O12">
-        <v>2.735039427249234</v>
+        <v>2.52557186684956</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.409603783902298</v>
+        <v>3.770995147367387</v>
       </c>
       <c r="C13">
-        <v>0.3621803023158918</v>
+        <v>0.5469519983698774</v>
       </c>
       <c r="D13">
-        <v>0.03066149804794094</v>
+        <v>0.05582134028061603</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.8187197275378253</v>
+        <v>0.9061016472785042</v>
       </c>
       <c r="G13">
-        <v>0.002413823239018478</v>
+        <v>0.0007696342476955226</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2826714931794214</v>
+        <v>0.2617269807451663</v>
       </c>
       <c r="M13">
-        <v>0.3117988783364396</v>
+        <v>0.6531721226541904</v>
       </c>
       <c r="N13">
-        <v>1.297730904824078</v>
+        <v>0.5909733094860599</v>
       </c>
       <c r="O13">
-        <v>2.733746678689897</v>
+        <v>2.515115810675496</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.390486602873239</v>
+        <v>3.703551887862147</v>
       </c>
       <c r="C14">
-        <v>0.3601151724663509</v>
+        <v>0.5406412217470802</v>
       </c>
       <c r="D14">
-        <v>0.03040939656172981</v>
+        <v>0.05507647015505057</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.8165060227605636</v>
+        <v>0.8925536121246438</v>
       </c>
       <c r="G14">
-        <v>0.002414323841150414</v>
+        <v>0.0007704619771590058</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2820413341644894</v>
+        <v>0.2580981984397823</v>
       </c>
       <c r="M14">
-        <v>0.3087195583291589</v>
+        <v>0.6416001339673727</v>
       </c>
       <c r="N14">
-        <v>1.30016158804731</v>
+        <v>0.5965389264272716</v>
       </c>
       <c r="O14">
-        <v>2.72957699035976</v>
+        <v>2.481197032884296</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.378780170457219</v>
+        <v>3.66228430604906</v>
       </c>
       <c r="C15">
-        <v>0.3588492531960412</v>
+        <v>0.536776648639659</v>
       </c>
       <c r="D15">
-        <v>0.03025484921101906</v>
+        <v>0.05462021334847833</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.8151606469139807</v>
+        <v>0.884298114390262</v>
       </c>
       <c r="G15">
-        <v>0.002414632300641887</v>
+        <v>0.0007709703352275288</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2816580656271412</v>
+        <v>0.2558841224101656</v>
       </c>
       <c r="M15">
-        <v>0.3068351520718338</v>
+        <v>0.6345224921712429</v>
       </c>
       <c r="N15">
-        <v>1.301660924970356</v>
+        <v>0.5999773587651234</v>
       </c>
       <c r="O15">
-        <v>2.727058462281263</v>
+        <v>2.460557858288666</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.311748256403689</v>
+        <v>3.426424039739913</v>
       </c>
       <c r="C16">
-        <v>0.3515800773149067</v>
+        <v>0.5146430825852804</v>
       </c>
       <c r="D16">
-        <v>0.02936725475735358</v>
+        <v>0.05200539353726441</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.807612942392538</v>
+        <v>0.8376257779039378</v>
       </c>
       <c r="G16">
-        <v>0.002416427997163303</v>
+        <v>0.0007739046721782017</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2795034571476123</v>
+        <v>0.2433244421534653</v>
       </c>
       <c r="M16">
-        <v>0.2960635894091013</v>
+        <v>0.5941172283385612</v>
       </c>
       <c r="N16">
-        <v>1.31041351535378</v>
+        <v>0.6201219801887703</v>
       </c>
       <c r="O16">
-        <v>2.713169922114076</v>
+        <v>2.344311307835625</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.270674560187388</v>
+        <v>3.282252235537555</v>
       </c>
       <c r="C17">
-        <v>0.3471076900233356</v>
+        <v>0.5010741553859361</v>
       </c>
       <c r="D17">
-        <v>0.02882102354342919</v>
+        <v>0.05040094181803312</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.8031272100857905</v>
+        <v>0.8095369960480667</v>
       </c>
       <c r="G17">
-        <v>0.002417554673284417</v>
+        <v>0.0007757241381301468</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2782189568330864</v>
+        <v>0.2357292961098665</v>
       </c>
       <c r="M17">
-        <v>0.2894800119561367</v>
+        <v>0.5694591045829043</v>
       </c>
       <c r="N17">
-        <v>1.315926128667407</v>
+        <v>0.6328632295890912</v>
       </c>
       <c r="O17">
-        <v>2.70513485348701</v>
+        <v>2.274730957980012</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.247068167924624</v>
+        <v>3.199504761085393</v>
       </c>
       <c r="C18">
-        <v>0.3445305744290863</v>
+        <v>0.4932722933698983</v>
       </c>
       <c r="D18">
-        <v>0.02850621966682354</v>
+        <v>0.04947791216615371</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8006002115151745</v>
+        <v>0.7935711104234429</v>
       </c>
       <c r="G18">
-        <v>0.00241821194328592</v>
+        <v>0.0007767779414525275</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2774938588810869</v>
+        <v>0.2313993227961504</v>
       </c>
       <c r="M18">
-        <v>0.2857023485304566</v>
+        <v>0.5553207721665387</v>
       </c>
       <c r="N18">
-        <v>1.319149445170417</v>
+        <v>0.6403287074890898</v>
       </c>
       <c r="O18">
-        <v>2.700691395561137</v>
+        <v>2.235317558906559</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.239078597143532</v>
+        <v>3.171516785108054</v>
       </c>
       <c r="C19">
-        <v>0.3436572024542102</v>
+        <v>0.4906310955467461</v>
       </c>
       <c r="D19">
-        <v>0.0283995255377647</v>
+        <v>0.04916535134604061</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7997537250854805</v>
+        <v>0.7881970909826208</v>
       </c>
       <c r="G19">
-        <v>0.002418436072071076</v>
+        <v>0.0007771360111155966</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2772507094320673</v>
+        <v>0.229939723468533</v>
       </c>
       <c r="M19">
-        <v>0.2844248541987824</v>
+        <v>0.5505411091016725</v>
       </c>
       <c r="N19">
-        <v>1.320249838992474</v>
+        <v>0.6428795799820151</v>
       </c>
       <c r="O19">
-        <v>2.69921748975608</v>
+        <v>2.222074450567931</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.275045059683123</v>
+        <v>3.297580987718902</v>
       </c>
       <c r="C20">
-        <v>0.3475842726818712</v>
+        <v>0.5025183016890651</v>
       </c>
       <c r="D20">
-        <v>0.02887923573199913</v>
+        <v>0.05057175682971149</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.8035992298306809</v>
+        <v>0.8125072148363444</v>
       </c>
       <c r="G20">
-        <v>0.00241743378113608</v>
+        <v>0.0007755297019587228</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2783542751377297</v>
+        <v>0.2365337823661093</v>
       </c>
       <c r="M20">
-        <v>0.290179911138587</v>
+        <v>0.5720793433030309</v>
       </c>
       <c r="N20">
-        <v>1.315333856663926</v>
+        <v>0.6314926345273051</v>
       </c>
       <c r="O20">
-        <v>2.705971763584671</v>
+        <v>2.282074390927164</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.396101077442495</v>
+        <v>3.723352481135635</v>
       </c>
       <c r="C21">
-        <v>0.3607219531134547</v>
+        <v>0.542494644975676</v>
       </c>
       <c r="D21">
-        <v>0.03048347157044162</v>
+        <v>0.05529525666411672</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.8171540359525409</v>
+        <v>0.8965239665927669</v>
       </c>
       <c r="G21">
-        <v>0.002414176421762803</v>
+        <v>0.0007702185727369765</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2822258599331917</v>
+        <v>0.2591622447424555</v>
       </c>
       <c r="M21">
-        <v>0.3096236615215275</v>
+        <v>0.6449968933823271</v>
       </c>
       <c r="N21">
-        <v>1.299445454771337</v>
+        <v>0.5948980348124593</v>
       </c>
       <c r="O21">
-        <v>2.730794324271329</v>
+        <v>2.491131061291611</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.475371102920349</v>
+        <v>4.003518340724668</v>
       </c>
       <c r="C22">
-        <v>0.3692650258070671</v>
+        <v>0.5686622834263915</v>
       </c>
       <c r="D22">
-        <v>0.0315262242068215</v>
+        <v>0.05838205407805219</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.8264864091584911</v>
+        <v>0.9533350878073321</v>
       </c>
       <c r="G22">
-        <v>0.002412129343998635</v>
+        <v>0.000766808365783386</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2848780282515122</v>
+        <v>0.2743338418536041</v>
       </c>
       <c r="M22">
-        <v>0.3224104848702183</v>
+        <v>0.6931157639174828</v>
       </c>
       <c r="N22">
-        <v>1.289530191057601</v>
+        <v>0.5722838579481291</v>
       </c>
       <c r="O22">
-        <v>2.748606919051298</v>
+        <v>2.633815262931961</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.433049610649164</v>
+        <v>3.853798015884365</v>
       </c>
       <c r="C23">
-        <v>0.364709432373985</v>
+        <v>0.5546914975287223</v>
       </c>
       <c r="D23">
-        <v>0.03097021621596951</v>
+        <v>0.05673452552674974</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.8214621757054488</v>
+        <v>0.9228293651281092</v>
       </c>
       <c r="G23">
-        <v>0.002413214445327435</v>
+        <v>0.0007686230865224804</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2834513774452745</v>
+        <v>0.2661994821698386</v>
       </c>
       <c r="M23">
-        <v>0.3155787298721719</v>
+        <v>0.6673880041091849</v>
       </c>
       <c r="N23">
-        <v>1.294779251833376</v>
+        <v>0.5842301408610737</v>
       </c>
       <c r="O23">
-        <v>2.738954375786363</v>
+        <v>2.557075433329203</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.273069133646686</v>
+        <v>3.290650430025551</v>
       </c>
       <c r="C24">
-        <v>0.3473688279672444</v>
+        <v>0.5018654061503582</v>
       </c>
       <c r="D24">
-        <v>0.02885292039287179</v>
+        <v>0.05049453327517028</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.80338566802088</v>
+        <v>0.8111638120185631</v>
       </c>
       <c r="G24">
-        <v>0.002417488406655779</v>
+        <v>0.0007756175823377553</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2782930560581889</v>
+        <v>0.2361699606237551</v>
       </c>
       <c r="M24">
-        <v>0.2898634638943705</v>
+        <v>0.5708946159004213</v>
       </c>
       <c r="N24">
-        <v>1.315601454499152</v>
+        <v>0.6321118442406402</v>
       </c>
       <c r="O24">
-        <v>2.705592848303695</v>
+        <v>2.278752596406122</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.101201047570214</v>
+        <v>2.689782673681748</v>
       </c>
       <c r="C25">
-        <v>0.328484475510038</v>
+        <v>0.4449759770929802</v>
       </c>
       <c r="D25">
-        <v>0.02654520684647821</v>
+        <v>0.04375566779749818</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.7859157796321767</v>
+        <v>0.6978758644522713</v>
       </c>
       <c r="G25">
-        <v>0.002422451957877659</v>
+        <v>0.0007834432207041111</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2732533486240172</v>
+        <v>0.2052325311801297</v>
       </c>
       <c r="M25">
-        <v>0.2624714962310435</v>
+        <v>0.4684732994127714</v>
       </c>
       <c r="N25">
-        <v>1.340072777324981</v>
+        <v>0.6889587279588731</v>
       </c>
       <c r="O25">
-        <v>2.676413748109439</v>
+        <v>2.001437313311186</v>
       </c>
     </row>
   </sheetData>
